--- a/medicine/Pharmacie/Pasiréotide/Pasiréotide.xlsx
+++ b/medicine/Pharmacie/Pasiréotide/Pasiréotide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pasir%C3%A9otide</t>
+          <t>Pasiréotide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pasiréotide est une molécule analogue synthétique de la somatostatine, inhibant l'action de l'hormone de croissance.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pasir%C3%A9otide</t>
+          <t>Pasiréotide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe sur les récepteurs à l'hormone de croissance avec une bien meilleure affinité que l'octréotide[2].
-Il diminue la sécrétion du pancréas[3], et par ce biais, diminue le taux de complications des pancréatectomies (en particulier la formation de fistules[4]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe sur les récepteurs à l'hormone de croissance avec une bien meilleure affinité que l'octréotide.
+Il diminue la sécrétion du pancréas, et par ce biais, diminue le taux de complications des pancréatectomies (en particulier la formation de fistules).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pasir%C3%A9otide</t>
+          <t>Pasiréotide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus courants sont les nausées et l'hyperglycémie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus courants sont les nausées et l'hyperglycémie.
 </t>
         </is>
       </c>
